--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H2">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I2">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J2">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N2">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O2">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P2">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q2">
-        <v>396.0117852243632</v>
+        <v>2268.243136524488</v>
       </c>
       <c r="R2">
-        <v>396.0117852243632</v>
+        <v>20414.18822872039</v>
       </c>
       <c r="S2">
-        <v>0.3936053583764312</v>
+        <v>0.459595077034538</v>
       </c>
       <c r="T2">
-        <v>0.3936053583764312</v>
+        <v>0.4595950770345381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H3">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I3">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J3">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N3">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O3">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P3">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q3">
-        <v>12.89480267931034</v>
+        <v>18.24688834627267</v>
       </c>
       <c r="R3">
-        <v>12.89480267931034</v>
+        <v>164.221995116454</v>
       </c>
       <c r="S3">
-        <v>0.01281644541691549</v>
+        <v>0.003697213900973381</v>
       </c>
       <c r="T3">
-        <v>0.01281644541691549</v>
+        <v>0.003697213900973381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H4">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I4">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J4">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N4">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O4">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P4">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q4">
-        <v>34.32155170868843</v>
+        <v>40.543795287776</v>
       </c>
       <c r="R4">
-        <v>34.32155170868843</v>
+        <v>364.894157589984</v>
       </c>
       <c r="S4">
-        <v>0.03411299149261385</v>
+        <v>0.008215049091743072</v>
       </c>
       <c r="T4">
-        <v>0.03411299149261385</v>
+        <v>0.008215049091743072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H5">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I5">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J5">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N5">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O5">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P5">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q5">
-        <v>240.9275489627639</v>
+        <v>1221.628039030545</v>
       </c>
       <c r="R5">
-        <v>240.9275489627639</v>
+        <v>10994.65235127491</v>
       </c>
       <c r="S5">
-        <v>0.2394635154570388</v>
+        <v>0.2475282405421856</v>
       </c>
       <c r="T5">
-        <v>0.2394635154570388</v>
+        <v>0.2475282405421857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H6">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I6">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J6">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N6">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O6">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P6">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q6">
-        <v>7.845001890851788</v>
+        <v>9.827390225468333</v>
       </c>
       <c r="R6">
-        <v>7.845001890851788</v>
+        <v>88.446512029215</v>
       </c>
       <c r="S6">
-        <v>0.007797330523795054</v>
+        <v>0.001991241633224192</v>
       </c>
       <c r="T6">
-        <v>0.007797330523795054</v>
+        <v>0.001991241633224192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H7">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I7">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J7">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N7">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O7">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P7">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q7">
-        <v>20.88071021696539</v>
+        <v>21.83603527096</v>
       </c>
       <c r="R7">
-        <v>20.88071021696539</v>
+        <v>196.52431743864</v>
       </c>
       <c r="S7">
-        <v>0.02075382535256287</v>
+        <v>0.004424452630710034</v>
       </c>
       <c r="T7">
-        <v>0.02075382535256287</v>
+        <v>0.004424452630710034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H8">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I8">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J8">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N8">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O8">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P8">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q8">
-        <v>261.9948464087632</v>
+        <v>1320.749877329058</v>
       </c>
       <c r="R8">
-        <v>261.9948464087632</v>
+        <v>11886.74889596152</v>
       </c>
       <c r="S8">
-        <v>0.2604027942124866</v>
+        <v>0.2676124670411195</v>
       </c>
       <c r="T8">
-        <v>0.2604027942124866</v>
+        <v>0.2676124670411195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H9">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I9">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J9">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N9">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O9">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P9">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q9">
-        <v>8.530988151080356</v>
+        <v>10.62477613484733</v>
       </c>
       <c r="R9">
-        <v>8.530988151080356</v>
+        <v>95.622985213626</v>
       </c>
       <c r="S9">
-        <v>0.008479148282439784</v>
+        <v>0.00215280925026935</v>
       </c>
       <c r="T9">
-        <v>0.008479148282439784</v>
+        <v>0.00215280925026935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H10">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I10">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J10">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N10">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O10">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P10">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q10">
-        <v>22.7065708747373</v>
+        <v>23.607792211744</v>
       </c>
       <c r="R10">
-        <v>22.7065708747373</v>
+        <v>212.470129905696</v>
       </c>
       <c r="S10">
-        <v>0.02256859088571632</v>
+        <v>0.004783448875236886</v>
       </c>
       <c r="T10">
-        <v>0.02256859088571632</v>
+        <v>0.004783448875236886</v>
       </c>
     </row>
   </sheetData>
